--- a/data/trans_orig/P36B02_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>261273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>252966</v>
+        <v>252936</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>266916</v>
+        <v>266831</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9570105855638227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9265824158548911</v>
+        <v>0.9264733704024595</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9776768595604479</v>
+        <v>0.9773662545540893</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>234</v>
@@ -765,19 +765,19 @@
         <v>249537</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>241341</v>
+        <v>241150</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>254707</v>
+        <v>254756</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9566745698125512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.925254172947367</v>
+        <v>0.9245195823444283</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9764949613111739</v>
+        <v>0.9766827530227216</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>494</v>
@@ -786,19 +786,19 @@
         <v>510811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>500197</v>
+        <v>499089</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>518849</v>
+        <v>519599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9568464083035368</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9369653192294533</v>
+        <v>0.9348896386193751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9719042946677175</v>
+        <v>0.9733097649264588</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>11737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6094</v>
+        <v>6179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20044</v>
+        <v>20074</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04298941443617733</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02232314043955258</v>
+        <v>0.02263374544591071</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07341758414510924</v>
+        <v>0.07352662959754031</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -836,19 +836,19 @@
         <v>11301</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6131</v>
+        <v>6082</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19497</v>
+        <v>19688</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04332543018744888</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02350503868882625</v>
+        <v>0.02331724697727849</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07474582705263351</v>
+        <v>0.07548041765557083</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -857,19 +857,19 @@
         <v>23037</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14999</v>
+        <v>14249</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33651</v>
+        <v>34759</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04315359169646318</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02809570533228246</v>
+        <v>0.02669023507354122</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0630346807705464</v>
+        <v>0.06511036138062494</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>433837</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>417711</v>
+        <v>417934</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>447545</v>
+        <v>447731</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8798599344587835</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8471551927282418</v>
+        <v>0.8476071480242788</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9076616631494479</v>
+        <v>0.9080381410991761</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>448</v>
@@ -982,19 +982,19 @@
         <v>452422</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>436827</v>
+        <v>435448</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>464890</v>
+        <v>464065</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8977535727355295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8668083679038696</v>
+        <v>0.8640715442916879</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9224948178440853</v>
+        <v>0.9208573751872341</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>857</v>
@@ -1003,19 +1003,19 @@
         <v>886259</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>863058</v>
+        <v>865296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>904735</v>
+        <v>907114</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8889043312388384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8656343536613705</v>
+        <v>0.8678785692375268</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9074354185079329</v>
+        <v>0.9098212592532258</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>59238</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45530</v>
+        <v>45344</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75364</v>
+        <v>75141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1201400655412165</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09233833685055226</v>
+        <v>0.09196185890082387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1528448072717583</v>
+        <v>0.1523928519757212</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -1053,19 +1053,19 @@
         <v>51527</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39059</v>
+        <v>39884</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67122</v>
+        <v>68501</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1022464272644705</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07750518215591505</v>
+        <v>0.07914262481276606</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1331916320961304</v>
+        <v>0.1359284557083123</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -1074,19 +1074,19 @@
         <v>110765</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>92289</v>
+        <v>89910</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133966</v>
+        <v>131728</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1110956687611616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09256458149206705</v>
+        <v>0.09017874074677414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1343656463386294</v>
+        <v>0.1321214307624731</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>302124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>292168</v>
+        <v>289408</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>309684</v>
+        <v>308527</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9475546288097106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9163279873876231</v>
+        <v>0.9076728559485766</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9712638041602617</v>
+        <v>0.9676374383011432</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>324</v>
@@ -1199,19 +1199,19 @@
         <v>324814</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>315090</v>
+        <v>316855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>330166</v>
+        <v>330160</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9684043695046957</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9394130893272885</v>
+        <v>0.9446727149379128</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9843602585171279</v>
+        <v>0.9843420004733465</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>620</v>
@@ -1220,19 +1220,19 @@
         <v>626938</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>614537</v>
+        <v>613937</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>636175</v>
+        <v>636516</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9582434613364952</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9392889162148985</v>
+        <v>0.9383719739647928</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9723608479164326</v>
+        <v>0.97288242124214</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>16722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9162</v>
+        <v>10319</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26678</v>
+        <v>29438</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05244537119028931</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02873619583973872</v>
+        <v>0.03236256169885673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08367201261237692</v>
+        <v>0.09232714405142323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1270,19 +1270,19 @@
         <v>10598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5246</v>
+        <v>5252</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20322</v>
+        <v>18557</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0315956304953043</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01563974148287206</v>
+        <v>0.01565799952665348</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06058691067271112</v>
+        <v>0.05532728506208726</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1291,19 +1291,19 @@
         <v>27320</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18083</v>
+        <v>17742</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39721</v>
+        <v>40321</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04175653866350477</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02763915208356758</v>
+        <v>0.02711757875785999</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06071108378510161</v>
+        <v>0.06162802603520724</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>336597</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>325119</v>
+        <v>326222</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>343902</v>
+        <v>343919</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9384555600419415</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9064547309838555</v>
+        <v>0.9095285587605613</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9588217227006169</v>
+        <v>0.958869468169921</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>372</v>
@@ -1416,19 +1416,19 @@
         <v>359425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>350396</v>
+        <v>350202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>364873</v>
+        <v>363993</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9676121951514129</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9433030501134151</v>
+        <v>0.9427820389529702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9822785214279769</v>
+        <v>0.9799082419713331</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>712</v>
@@ -1437,19 +1437,19 @@
         <v>696022</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>682869</v>
+        <v>682749</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>706444</v>
+        <v>706382</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9532891504845165</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9352737064375336</v>
+        <v>0.935109767088198</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9675637378986227</v>
+        <v>0.9674785298070281</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>22074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14769</v>
+        <v>14752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33552</v>
+        <v>32449</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06154443995805842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04117827729938313</v>
+        <v>0.04113053183007894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09354526901614481</v>
+        <v>0.09047144123943822</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1487,19 +1487,19 @@
         <v>12031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6583</v>
+        <v>7463</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21060</v>
+        <v>21254</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03238780484858701</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01772147857202324</v>
+        <v>0.0200917580286669</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05669694988658531</v>
+        <v>0.05721796104702986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -1508,19 +1508,19 @@
         <v>34105</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23683</v>
+        <v>23745</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47258</v>
+        <v>47378</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04671084951548353</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03243626210137726</v>
+        <v>0.03252147019297186</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06472629356246651</v>
+        <v>0.06489023291180185</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>185901</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>177637</v>
+        <v>176937</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>193422</v>
+        <v>192783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9143812224526503</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.873731581470704</v>
+        <v>0.8702888313363562</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9513744727353488</v>
+        <v>0.9482315492808899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>191</v>
@@ -1633,19 +1633,19 @@
         <v>199496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>191736</v>
+        <v>191831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>204139</v>
+        <v>204027</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9606504483877306</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9232810198830317</v>
+        <v>0.9237389159057082</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9830074024937597</v>
+        <v>0.9824674512877711</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>379</v>
@@ -1654,19 +1654,19 @@
         <v>385397</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>374719</v>
+        <v>374266</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>394381</v>
+        <v>394945</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9377612654139312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9117789576614617</v>
+        <v>0.9106770942066885</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9596213899931352</v>
+        <v>0.9609923828921685</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>17407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9886</v>
+        <v>10525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25671</v>
+        <v>26371</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08561877754734973</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.048625527264651</v>
+        <v>0.05176845071911007</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1262684185292957</v>
+        <v>0.1297111686636438</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1704,19 +1704,19 @@
         <v>8172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3529</v>
+        <v>3641</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15932</v>
+        <v>15837</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03934955161226939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01699259750624019</v>
+        <v>0.01753254871222882</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07671898011696748</v>
+        <v>0.07626108409429158</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -1725,19 +1725,19 @@
         <v>25579</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16595</v>
+        <v>16031</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36257</v>
+        <v>36710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06223873458606874</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04037861000686476</v>
+        <v>0.03900761710783163</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08822104233853828</v>
+        <v>0.08932290579331142</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>255466</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>247286</v>
+        <v>246776</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>261932</v>
+        <v>261305</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9433385520998003</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9131323453253738</v>
+        <v>0.911249489130472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9672138148002122</v>
+        <v>0.964898046445905</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>255</v>
@@ -1850,19 +1850,19 @@
         <v>263061</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>253995</v>
+        <v>254577</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>269078</v>
+        <v>269243</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.945774281754245</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.913179323354135</v>
+        <v>0.9152693076702199</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9674069005851045</v>
+        <v>0.967998540760705</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>505</v>
@@ -1871,19 +1871,19 @@
         <v>518528</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>507482</v>
+        <v>506427</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>527248</v>
+        <v>527466</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9445726852875341</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.92445034462453</v>
+        <v>0.922528956592424</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9604579734690666</v>
+        <v>0.9608546645267021</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>15345</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8879</v>
+        <v>9506</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23525</v>
+        <v>24035</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05666144790019966</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03278618519978773</v>
+        <v>0.03510195355409493</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08686765467462611</v>
+        <v>0.08875051086952777</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1921,19 +1921,19 @@
         <v>15083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9066</v>
+        <v>8901</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24149</v>
+        <v>23567</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05422571824575496</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03259309941489559</v>
+        <v>0.03200145923929495</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0868206766458651</v>
+        <v>0.08473069232978012</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -1942,19 +1942,19 @@
         <v>30427</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21707</v>
+        <v>21489</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41473</v>
+        <v>42528</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05542731471246589</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0395420265309336</v>
+        <v>0.03914533547329805</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0755496553754705</v>
+        <v>0.07747104340757671</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>580966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>567963</v>
+        <v>567924</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>592065</v>
+        <v>591645</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9446190594920878</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9234759417307076</v>
+        <v>0.923413407960131</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9626654214256105</v>
+        <v>0.9619820587137683</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>572</v>
@@ -2067,19 +2067,19 @@
         <v>586489</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>573092</v>
+        <v>570370</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>598729</v>
+        <v>600287</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9205800988919873</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8995525137361717</v>
+        <v>0.8952787046069134</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9397925466958781</v>
+        <v>0.9422381995343754</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1137</v>
@@ -2088,19 +2088,19 @@
         <v>1167456</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1146502</v>
+        <v>1146325</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1185363</v>
+        <v>1185121</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9323878227294232</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9156530284304345</v>
+        <v>0.9155117002665526</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9466891344368403</v>
+        <v>0.9464963473592767</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>34061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22962</v>
+        <v>23382</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47064</v>
+        <v>47103</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05538094050791223</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0373345785743895</v>
+        <v>0.03801794128623163</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07652405826929257</v>
+        <v>0.07658659203986881</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>48</v>
@@ -2138,19 +2138,19 @@
         <v>50597</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>38357</v>
+        <v>36799</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>63994</v>
+        <v>66716</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07941990110801268</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06020745330412194</v>
+        <v>0.05776180046562467</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1004474862638283</v>
+        <v>0.1047212953930867</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>81</v>
@@ -2159,19 +2159,19 @@
         <v>84658</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>66751</v>
+        <v>66993</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>105612</v>
+        <v>105789</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06761217727057678</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05331086556315969</v>
+        <v>0.05350365264072333</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08434697156956529</v>
+        <v>0.08448829973344732</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>686376</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>670828</v>
+        <v>670170</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>699122</v>
+        <v>698889</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9238987129016567</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9029695785575859</v>
+        <v>0.9020844958000183</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9410544302144719</v>
+        <v>0.9407417480912985</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>712</v>
@@ -2284,19 +2284,19 @@
         <v>750690</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>738247</v>
+        <v>738008</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>760337</v>
+        <v>760446</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9581101329927693</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.942229424813405</v>
+        <v>0.9419244510536589</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9704229506083125</v>
+        <v>0.9705620364925733</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1390</v>
@@ -2305,19 +2305,19 @@
         <v>1437066</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1417546</v>
+        <v>1416732</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1454263</v>
+        <v>1453801</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9414593788859899</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9286711230418619</v>
+        <v>0.9281380332269732</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9527256680382632</v>
+        <v>0.952423024245068</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>56537</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43791</v>
+        <v>44024</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72085</v>
+        <v>72743</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07610128709834335</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05894556978552801</v>
+        <v>0.05925825190870136</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09703042144241418</v>
+        <v>0.09791550419998152</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -2355,19 +2355,19 @@
         <v>32821</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>23174</v>
+        <v>23065</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45264</v>
+        <v>45503</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04188986700723073</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02957704939168746</v>
+        <v>0.02943796350742629</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05777057518659469</v>
+        <v>0.05807554894633965</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>90</v>
@@ -2376,19 +2376,19 @@
         <v>89358</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>72161</v>
+        <v>72623</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>108878</v>
+        <v>109692</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05854062111401017</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04727433196173676</v>
+        <v>0.04757697575493212</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07132887695813803</v>
+        <v>0.07186196677302714</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>3042541</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3011617</v>
+        <v>3008336</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3072603</v>
+        <v>3066900</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9288327637095578</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9193922347015256</v>
+        <v>0.9183905642118716</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9380101242385006</v>
+        <v>0.9362691151065636</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3108</v>
@@ -2501,19 +2501,19 @@
         <v>3185936</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3157927</v>
+        <v>3157139</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3211411</v>
+        <v>3212934</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9431245864588624</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9348332449852381</v>
+        <v>0.9345997695830968</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9506658952196159</v>
+        <v>0.9511167037688082</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6094</v>
@@ -2522,19 +2522,19 @@
         <v>6228477</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6188258</v>
+        <v>6189986</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6268395</v>
+        <v>6270333</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9360886533320603</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9300440490684013</v>
+        <v>0.9303036556572525</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9420879043686058</v>
+        <v>0.9423792449104453</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>233120</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>203058</v>
+        <v>208761</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>264044</v>
+        <v>267325</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07116723629044223</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06198987576149954</v>
+        <v>0.06373088489343658</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08060776529847447</v>
+        <v>0.08160943578812875</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>188</v>
@@ -2572,19 +2572,19 @@
         <v>192129</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>166654</v>
+        <v>165131</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>220138</v>
+        <v>220926</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05687541354113756</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04933410478038424</v>
+        <v>0.04888329623119179</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06516675501476202</v>
+        <v>0.06540023041690336</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>415</v>
@@ -2593,19 +2593,19 @@
         <v>425249</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>385331</v>
+        <v>383393</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>465468</v>
+        <v>463740</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06391134666793978</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05791209563139429</v>
+        <v>0.05762075508955462</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06995595093159868</v>
+        <v>0.06969634434274773</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>241193</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>225308</v>
+        <v>226690</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>253808</v>
+        <v>254598</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8183310208943154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7644335958653827</v>
+        <v>0.7691236913028918</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8611322805313298</v>
+        <v>0.8638127606246317</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>228</v>
@@ -2962,19 +2962,19 @@
         <v>254836</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>240596</v>
+        <v>242991</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>264132</v>
+        <v>265739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8871731640021144</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8376000906492833</v>
+        <v>0.845936010662566</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9195369836421905</v>
+        <v>0.9251287873857384</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>460</v>
@@ -2983,19 +2983,19 @@
         <v>496029</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>477919</v>
+        <v>475215</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>512687</v>
+        <v>511189</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8523089212140356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8211907032260038</v>
+        <v>0.8165444504436166</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8809308089762119</v>
+        <v>0.8783568099288455</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>53545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40930</v>
+        <v>40140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69430</v>
+        <v>68048</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1816689791056846</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1388677194686699</v>
+        <v>0.1361872393753683</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.235566404134617</v>
+        <v>0.230876308697108</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -3033,19 +3033,19 @@
         <v>32409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23113</v>
+        <v>21506</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46649</v>
+        <v>44254</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1128268359978856</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08046301635780975</v>
+        <v>0.07487121261426147</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1623999093507173</v>
+        <v>0.154063989337434</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -3054,19 +3054,19 @@
         <v>85954</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>69296</v>
+        <v>70794</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>104064</v>
+        <v>106768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1476910787859645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1190691910237881</v>
+        <v>0.1216431900711542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1788092967739961</v>
+        <v>0.1834555495563834</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>445868</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>430117</v>
+        <v>427062</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>460168</v>
+        <v>459240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8819865460857105</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8508293046027215</v>
+        <v>0.844784767856934</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9102734779926617</v>
+        <v>0.9084382623051764</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>435</v>
@@ -3179,19 +3179,19 @@
         <v>474804</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>460864</v>
+        <v>458495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>487635</v>
+        <v>487069</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9065215595043734</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8799053481027966</v>
+        <v>0.8753837691225503</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9310184306928734</v>
+        <v>0.9299377475344728</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>853</v>
@@ -3200,19 +3200,19 @@
         <v>920672</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>900957</v>
+        <v>897073</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>939577</v>
+        <v>940460</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8944714173836498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8753174069231991</v>
+        <v>0.8715437986450689</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9128384827834406</v>
+        <v>0.9136958355024497</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>59659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45359</v>
+        <v>46287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75410</v>
+        <v>78465</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1180134539142895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08972652200733817</v>
+        <v>0.09156173769482354</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1491706953972785</v>
+        <v>0.1552152321430659</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -3250,19 +3250,19 @@
         <v>48961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36130</v>
+        <v>36696</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62901</v>
+        <v>65270</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09347844049562659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06898156930712661</v>
+        <v>0.07006225246552729</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1200946518972034</v>
+        <v>0.1246162308774496</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>99</v>
@@ -3271,19 +3271,19 @@
         <v>108620</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>89715</v>
+        <v>88832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>128335</v>
+        <v>132219</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1055285826163502</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08716151721655925</v>
+        <v>0.08630416449755035</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1246825930768009</v>
+        <v>0.1284562013549311</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>310467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>301783</v>
+        <v>301819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>316126</v>
+        <v>316200</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9580958153728193</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9312958341062928</v>
+        <v>0.9314084814984775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9755575201469485</v>
+        <v>0.9757886591114188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>301</v>
@@ -3396,19 +3396,19 @@
         <v>324171</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>314270</v>
+        <v>314515</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>331136</v>
+        <v>331181</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9505923296318542</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9215581395378539</v>
+        <v>0.9222787104166146</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9710177985005021</v>
+        <v>0.9711480300797217</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>607</v>
@@ -3417,19 +3417,19 @@
         <v>634638</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>622480</v>
+        <v>622026</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>645066</v>
+        <v>644182</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.954248319433737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.935967902071636</v>
+        <v>0.9352850864800922</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9699273294450979</v>
+        <v>0.9685991786533398</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>13579</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7920</v>
+        <v>7846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22263</v>
+        <v>22227</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04190418462718074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02444247985305137</v>
+        <v>0.02421134088858081</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06870416589370709</v>
+        <v>0.06859151850152219</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -3467,19 +3467,19 @@
         <v>16849</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9884</v>
+        <v>9839</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26750</v>
+        <v>26505</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04940767036814575</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02898220149949777</v>
+        <v>0.02885196992027829</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07844186046214512</v>
+        <v>0.0777212895833852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -3488,19 +3488,19 @@
         <v>30428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20000</v>
+        <v>20884</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42586</v>
+        <v>43040</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04575168056626303</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03007267055490219</v>
+        <v>0.03140082134666029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0640320979283641</v>
+        <v>0.064714913519908</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>361981</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>352900</v>
+        <v>351974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>368683</v>
+        <v>368363</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9679096303803396</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9436283587786859</v>
+        <v>0.9411513696210443</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9858315051113142</v>
+        <v>0.9849746817090709</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>357</v>
@@ -3613,19 +3613,19 @@
         <v>375211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>366974</v>
+        <v>367014</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>381075</v>
+        <v>380978</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9669212578823676</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9456948395960427</v>
+        <v>0.9457986909403081</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9820321078300652</v>
+        <v>0.9817832604581601</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>691</v>
@@ -3634,19 +3634,19 @@
         <v>737192</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>725836</v>
+        <v>724654</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>746287</v>
+        <v>745896</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9674063230111208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.952504831675112</v>
+        <v>0.9509531146841144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9793419358410395</v>
+        <v>0.9788290351447968</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>12001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5299</v>
+        <v>5619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21082</v>
+        <v>22008</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03209036961966035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01416849488868596</v>
+        <v>0.01502531829092913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05637164122131481</v>
+        <v>0.05884863037895712</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -3684,19 +3684,19 @@
         <v>12836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6972</v>
+        <v>7069</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21073</v>
+        <v>21033</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03307874211763234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01796789216993462</v>
+        <v>0.01821673954183981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05430516040395515</v>
+        <v>0.05420130905969169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -3705,19 +3705,19 @@
         <v>24837</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15742</v>
+        <v>16133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36193</v>
+        <v>37375</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0325936769888792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02065806415896045</v>
+        <v>0.02117096485520323</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04749516832488773</v>
+        <v>0.04904688531588564</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>203666</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>196248</v>
+        <v>196340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>207878</v>
+        <v>208439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9578986107635347</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9230072813399742</v>
+        <v>0.9234388495468984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9777046213565203</v>
+        <v>0.9803453998903111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>199</v>
@@ -3830,19 +3830,19 @@
         <v>204540</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>193940</v>
+        <v>195632</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>210737</v>
+        <v>211291</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9314600530197166</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8831859246429621</v>
+        <v>0.8908908921942126</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9596802575781589</v>
+        <v>0.9622006389818756</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>386</v>
@@ -3851,19 +3851,19 @@
         <v>408207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>396070</v>
+        <v>397351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>417265</v>
+        <v>417276</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9444660612221311</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9163863060441952</v>
+        <v>0.9193482354193072</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.965423818835357</v>
+        <v>0.9654487896689932</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>8952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4740</v>
+        <v>4179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16370</v>
+        <v>16278</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04210138923646536</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02229537864347977</v>
+        <v>0.01965460010968886</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07699271866002629</v>
+        <v>0.07656115045310183</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -3901,19 +3901,19 @@
         <v>15051</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8854</v>
+        <v>8300</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25651</v>
+        <v>23959</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06853994698028339</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04031974242184116</v>
+        <v>0.03779936101812447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1168140753570375</v>
+        <v>0.1091091078057875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -3922,19 +3922,19 @@
         <v>24002</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14944</v>
+        <v>14933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36139</v>
+        <v>34858</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.055533938777869</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03457618116464273</v>
+        <v>0.03455121033100701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0836136939558047</v>
+        <v>0.08065176458069295</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>259211</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>248400</v>
+        <v>249904</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>265851</v>
+        <v>266253</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9460904139526264</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.90663336568983</v>
+        <v>0.912122223129285</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9703273711930356</v>
+        <v>0.9717922637575303</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>256</v>
@@ -4047,19 +4047,19 @@
         <v>267399</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>259447</v>
+        <v>259456</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>273210</v>
+        <v>272552</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9582375877276734</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9297395882325019</v>
+        <v>0.9297723647018561</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9790608381267937</v>
+        <v>0.976703568707091</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>504</v>
@@ -4068,19 +4068,19 @@
         <v>526610</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>515279</v>
+        <v>514733</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>535595</v>
+        <v>535449</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.952219698123962</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9317309245035155</v>
+        <v>0.9307431308470135</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.968467380653637</v>
+        <v>0.9682031820123987</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>14770</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8130</v>
+        <v>7728</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25581</v>
+        <v>24077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05390958604737366</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02967262880696423</v>
+        <v>0.0282077362424697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09336663431016924</v>
+        <v>0.08787777687071494</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -4118,19 +4118,19 @@
         <v>11654</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5843</v>
+        <v>6501</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19606</v>
+        <v>19597</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0417624122723266</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02093916187320637</v>
+        <v>0.02329643129290892</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0702604117674986</v>
+        <v>0.0702276352981439</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -4139,19 +4139,19 @@
         <v>26424</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17439</v>
+        <v>17585</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37755</v>
+        <v>38301</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04778030187603804</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03153261934636293</v>
+        <v>0.03179681798760126</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06826907549648446</v>
+        <v>0.06925686915298659</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>620080</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>604926</v>
+        <v>605374</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>630738</v>
+        <v>631755</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9368536784266601</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9139583015261756</v>
+        <v>0.9146349158067703</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9529560026493116</v>
+        <v>0.9544934019820301</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>593</v>
@@ -4264,19 +4264,19 @@
         <v>646978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>631457</v>
+        <v>630220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>658692</v>
+        <v>657643</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9379043184064494</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9154040594524732</v>
+        <v>0.9136106191358123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9548865027758077</v>
+        <v>0.9533653259602872</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1170</v>
@@ -4285,19 +4285,19 @@
         <v>1267057</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1247120</v>
+        <v>1246929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1285059</v>
+        <v>1284725</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.937389855943996</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9226406492775716</v>
+        <v>0.9224993275143996</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9507083760799859</v>
+        <v>0.9504608512796298</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>41795</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31137</v>
+        <v>30120</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>56949</v>
+        <v>56501</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06314632157333983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04704399735068843</v>
+        <v>0.04550659801796986</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08604169847382402</v>
+        <v>0.08536508419322923</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>39</v>
@@ -4335,19 +4335,19 @@
         <v>42834</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31120</v>
+        <v>32169</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58355</v>
+        <v>59592</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06209568159355064</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04511349722419225</v>
+        <v>0.04663467403971275</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08459594054752671</v>
+        <v>0.08638938086418751</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>79</v>
@@ -4356,19 +4356,19 @@
         <v>84629</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>66627</v>
+        <v>66961</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>104566</v>
+        <v>104757</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06261014405600394</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04929162392001408</v>
+        <v>0.04953914872037028</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0773593507224284</v>
+        <v>0.07750067248560046</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>754468</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>740788</v>
+        <v>742229</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>763357</v>
+        <v>763440</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.968387142602228</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.950827842704422</v>
+        <v>0.9526775607344637</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9797957670088115</v>
+        <v>0.9799027532768929</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>733</v>
@@ -4481,19 +4481,19 @@
         <v>797081</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>784140</v>
+        <v>784923</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>806395</v>
+        <v>806481</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9675039958380429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9517957071093022</v>
+        <v>0.9527458650472138</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.978809493166624</v>
+        <v>0.9789134625504314</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1429</v>
@@ -4502,19 +4502,19 @@
         <v>1551550</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1532593</v>
+        <v>1534843</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1565361</v>
+        <v>1564621</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9679332403997507</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.956107242659303</v>
+        <v>0.9575105630785086</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9765494263153359</v>
+        <v>0.9760880482837927</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>24630</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15741</v>
+        <v>15658</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38310</v>
+        <v>36869</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03161285739777196</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0202042329911885</v>
+        <v>0.02009724672310716</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04917215729557812</v>
+        <v>0.04732243926553622</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -4552,19 +4552,19 @@
         <v>26772</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17458</v>
+        <v>17372</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39713</v>
+        <v>38930</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03249600416195704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02119050683337603</v>
+        <v>0.02108653744956865</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04820429289069789</v>
+        <v>0.04725413495278618</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>45</v>
@@ -4573,19 +4573,19 @@
         <v>51401</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>37590</v>
+        <v>38330</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>70358</v>
+        <v>68108</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03206675960024934</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02345057368466399</v>
+        <v>0.02391195171620724</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04389275734069679</v>
+        <v>0.04248943692149138</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>3196935</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3165544</v>
+        <v>3163118</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3228864</v>
+        <v>3223465</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9331759871575933</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9240131857381787</v>
+        <v>0.923304948838276</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9424960034336447</v>
+        <v>0.9409200994019693</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3102</v>
@@ -4698,19 +4698,19 @@
         <v>3345019</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3313366</v>
+        <v>3314291</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3371733</v>
+        <v>3370771</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9416263433026405</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9327160412204542</v>
+        <v>0.9329762086041228</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9491461774348536</v>
+        <v>0.9488756013443324</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6100</v>
@@ -4719,19 +4719,19 @@
         <v>6541954</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6498343</v>
+        <v>6495522</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6584508</v>
+        <v>6579492</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9374777702131148</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.931228176628615</v>
+        <v>0.9308239186155596</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9435758011996198</v>
+        <v>0.9428569902130046</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>228930</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>197001</v>
+        <v>202400</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>260321</v>
+        <v>262747</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06682401284240674</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05750399656635533</v>
+        <v>0.05907990059803066</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07598681426182141</v>
+        <v>0.07669505116172394</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>190</v>
@@ -4769,19 +4769,19 @@
         <v>207366</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>180652</v>
+        <v>181614</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>239019</v>
+        <v>238094</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05837365669735946</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0508538225651461</v>
+        <v>0.05112439865566762</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06728395877954582</v>
+        <v>0.06702379139587707</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>400</v>
@@ -4790,19 +4790,19 @@
         <v>436296</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>393742</v>
+        <v>398758</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>479907</v>
+        <v>482728</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06252222978688519</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05642419880037993</v>
+        <v>0.05714300978699486</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0687718233713849</v>
+        <v>0.06917608138444031</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>255066</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>241515</v>
+        <v>240356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>265002</v>
+        <v>266333</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.871422725443203</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8251245270947744</v>
+        <v>0.8211667483900099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9053676098849749</v>
+        <v>0.909916005198859</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>253</v>
@@ -5159,19 +5159,19 @@
         <v>264355</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>253154</v>
+        <v>253742</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>272364</v>
+        <v>272418</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9156645447890003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.876866914076454</v>
+        <v>0.8789042007511904</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.943404963680457</v>
+        <v>0.943593453724594</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>486</v>
@@ -5180,19 +5180,19 @@
         <v>519421</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>504590</v>
+        <v>502519</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>535037</v>
+        <v>533160</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8933915098688471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.867882218470867</v>
+        <v>0.8643198835088829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9202492676661437</v>
+        <v>0.9170209056501214</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>37635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27699</v>
+        <v>26368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51186</v>
+        <v>52345</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.128577274556797</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09463239011502515</v>
+        <v>0.09008399480114104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1748754729052257</v>
+        <v>0.1788332516099901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -5230,19 +5230,19 @@
         <v>24348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16339</v>
+        <v>16285</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35549</v>
+        <v>34961</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08433545521099971</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05659503631954292</v>
+        <v>0.05640654627540595</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1231330859235457</v>
+        <v>0.1210957992488097</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -5251,19 +5251,19 @@
         <v>61983</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46367</v>
+        <v>48244</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76814</v>
+        <v>78885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1066084901311529</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07975073233385623</v>
+        <v>0.08297909434987856</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1321177815291329</v>
+        <v>0.1356801164911169</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>427361</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>410203</v>
+        <v>411008</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>442339</v>
+        <v>441947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8521786017549762</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8179642500219493</v>
+        <v>0.8195697092579585</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8820454652891204</v>
+        <v>0.8812650295039207</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>435</v>
@@ -5376,19 +5376,19 @@
         <v>470897</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>454246</v>
+        <v>455799</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>482310</v>
+        <v>483852</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9002322422882685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8683996384448854</v>
+        <v>0.8713694278925872</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9220506828829753</v>
+        <v>0.9249992678053913</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>839</v>
@@ -5397,19 +5397,19 @@
         <v>898258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>877513</v>
+        <v>877303</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>920174</v>
+        <v>920499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8767117708231484</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8564644262432783</v>
+        <v>0.8562593249638659</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8981026413315184</v>
+        <v>0.8984197024706126</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>74131</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>59153</v>
+        <v>59545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91289</v>
+        <v>90484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1478213982450238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1179545347108795</v>
+        <v>0.1187349704960788</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1820357499780507</v>
+        <v>0.1804302907420415</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -5447,19 +5447,19 @@
         <v>52187</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40774</v>
+        <v>39232</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>68838</v>
+        <v>67285</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09976775771173146</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07794931711702484</v>
+        <v>0.07500073219460869</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1316003615551147</v>
+        <v>0.1286305721074129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>119</v>
@@ -5468,19 +5468,19 @@
         <v>126318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>104402</v>
+        <v>104077</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>147063</v>
+        <v>147273</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1232882291768516</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1018973586684816</v>
+        <v>0.1015802975293873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1435355737567215</v>
+        <v>0.1437406750361341</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>306484</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>298159</v>
+        <v>297766</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>311765</v>
+        <v>311918</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9650118658405477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9387992461854417</v>
+        <v>0.9375630672473618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9816402245800706</v>
+        <v>0.9821223618309305</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>326</v>
@@ -5593,19 +5593,19 @@
         <v>330545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>324667</v>
+        <v>324456</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>333615</v>
+        <v>334267</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9828606293047656</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9653826284054586</v>
+        <v>0.9647555682202833</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9919895474690288</v>
+        <v>0.9939276796701104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>649</v>
@@ -5614,19 +5614,19 @@
         <v>637029</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>628461</v>
+        <v>627851</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>643863</v>
+        <v>644333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9741916441642473</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9610888681831224</v>
+        <v>0.9601568580021492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9846437932309979</v>
+        <v>0.9853610969591576</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>11112</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5831</v>
+        <v>5678</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19437</v>
+        <v>19830</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03498813415945239</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01835977541992967</v>
+        <v>0.01787763816906938</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06120075381455826</v>
+        <v>0.06243693275263806</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -5664,19 +5664,19 @@
         <v>5764</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2694</v>
+        <v>2042</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11642</v>
+        <v>11853</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01713937069523445</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008010452530971135</v>
+        <v>0.006072320329889654</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03461737159454099</v>
+        <v>0.03524443177971702</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -5685,19 +5685,19 @@
         <v>16876</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10042</v>
+        <v>9572</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25444</v>
+        <v>26054</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02580835583575271</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0153562067690023</v>
+        <v>0.01463890304084252</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03891113181687766</v>
+        <v>0.03984314199785084</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>329230</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>315054</v>
+        <v>316148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>339996</v>
+        <v>340064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8898968361175141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8515806849173937</v>
+        <v>0.854538284049235</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9189970540662756</v>
+        <v>0.9191809294259613</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>332</v>
@@ -5810,19 +5810,19 @@
         <v>360457</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>348162</v>
+        <v>348679</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>369619</v>
+        <v>369083</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9328546235139437</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9010361004904335</v>
+        <v>0.9023737721290391</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9565653054481427</v>
+        <v>0.9551795486339979</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>647</v>
@@ -5831,19 +5831,19 @@
         <v>689687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>673464</v>
+        <v>673260</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>703683</v>
+        <v>704393</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9118425278726556</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.890393745360005</v>
+        <v>0.8901247123617286</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9303471459221647</v>
+        <v>0.9312856486486775</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>40734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29968</v>
+        <v>29900</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54910</v>
+        <v>53816</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1101031638824859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08100294593372433</v>
+        <v>0.08081907057403857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1484193150826061</v>
+        <v>0.1454617159507648</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -5881,19 +5881,19 @@
         <v>25945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16783</v>
+        <v>17319</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38240</v>
+        <v>37723</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0671453764860564</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04343469455185735</v>
+        <v>0.04482045136600216</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09896389950956669</v>
+        <v>0.09762622787096097</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>64</v>
@@ -5902,19 +5902,19 @@
         <v>66679</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>52683</v>
+        <v>51973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>82902</v>
+        <v>83106</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08815747212734441</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06965285407783553</v>
+        <v>0.06871435135132249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1096062546399952</v>
+        <v>0.1098752876382713</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>207643</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201396</v>
+        <v>199630</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210244</v>
+        <v>210236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9830614418532608</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9534855424200714</v>
+        <v>0.9451254477074215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9953756980342976</v>
+        <v>0.9953354570099759</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>220</v>
@@ -6027,19 +6027,19 @@
         <v>215893</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>210713</v>
+        <v>210685</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217766</v>
+        <v>217762</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9876743000158448</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9639765516453805</v>
+        <v>0.9638479052633973</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9962421754376344</v>
+        <v>0.9962276480222637</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>429</v>
@@ -6048,19 +6048,19 @@
         <v>423536</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>416942</v>
+        <v>416196</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>427142</v>
+        <v>427241</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9854073982600042</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9700646472211139</v>
+        <v>0.9683301996183494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9937964724970709</v>
+        <v>0.9940273765688785</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>3578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9825</v>
+        <v>11591</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0169385581467392</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004624301965702458</v>
+        <v>0.00466454299002411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04651445757992866</v>
+        <v>0.05487455229257852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -6098,19 +6098,19 @@
         <v>2694</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7874</v>
+        <v>7902</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01232569998415521</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003757824562365644</v>
+        <v>0.003772351977736244</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03602344835461965</v>
+        <v>0.0361520947365987</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -6119,19 +6119,19 @@
         <v>6272</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2666</v>
+        <v>2567</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12866</v>
+        <v>13612</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01459260173999576</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006203527502929055</v>
+        <v>0.005972623431121543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02993535277888615</v>
+        <v>0.03166980038165068</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>226846</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>214344</v>
+        <v>214628</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>237036</v>
+        <v>236886</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8621288713114384</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8146170293795328</v>
+        <v>0.8156950051507911</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9008581009113205</v>
+        <v>0.9002854554993354</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>242</v>
@@ -6244,19 +6244,19 @@
         <v>252535</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>242041</v>
+        <v>241300</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>259689</v>
+        <v>259814</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9246456059901607</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8862236548995557</v>
+        <v>0.8835115477921852</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9508405902387594</v>
+        <v>0.9513006481919615</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>466</v>
@@ -6265,19 +6265,19 @@
         <v>479381</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>464507</v>
+        <v>463324</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>492766</v>
+        <v>492402</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8939696920500213</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8662335361603131</v>
+        <v>0.8640267430336872</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9189321094682054</v>
+        <v>0.9182521226303864</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>36277</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26087</v>
+        <v>26237</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48779</v>
+        <v>48495</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1378711286885616</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09914189908867956</v>
+        <v>0.09971454450066468</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1853829706204674</v>
+        <v>0.1843049948492089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -6315,19 +6315,19 @@
         <v>20580</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13426</v>
+        <v>13301</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31074</v>
+        <v>31815</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07535439400983932</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04915940976124061</v>
+        <v>0.04869935180803853</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1137763451004444</v>
+        <v>0.1164884522078151</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>56</v>
@@ -6336,19 +6336,19 @@
         <v>56857</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43472</v>
+        <v>43836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>71731</v>
+        <v>72914</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1060303079499787</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08106789053179475</v>
+        <v>0.08174787736961373</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1337664638396872</v>
+        <v>0.135973256966313</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>602042</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>587415</v>
+        <v>585557</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>614763</v>
+        <v>615177</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9196959797716536</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8973503627999039</v>
+        <v>0.894513197870203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9391281762390362</v>
+        <v>0.9397605871470665</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>591</v>
@@ -6461,19 +6461,19 @@
         <v>632812</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>618969</v>
+        <v>616232</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>645904</v>
+        <v>646365</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.918172697780996</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8980879858310552</v>
+        <v>0.894116556524456</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.937168091884486</v>
+        <v>0.9378369789799339</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1121</v>
@@ -6482,19 +6482,19 @@
         <v>1234854</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1215187</v>
+        <v>1211764</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1254605</v>
+        <v>1253907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9189147298292274</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.904279293105264</v>
+        <v>0.9017318903657005</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9336124955565032</v>
+        <v>0.9330926432286717</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>52568</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>39847</v>
+        <v>39433</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>67195</v>
+        <v>69053</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08030402022834641</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06087182376096387</v>
+        <v>0.06023941285293357</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1026496372000961</v>
+        <v>0.105486802129797</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>53</v>
@@ -6532,19 +6532,19 @@
         <v>56396</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>43304</v>
+        <v>42843</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>70239</v>
+        <v>72976</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08182730221900406</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06283190811551395</v>
+        <v>0.06216302102006613</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1019120141689448</v>
+        <v>0.105883443475544</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>101</v>
@@ -6553,19 +6553,19 @@
         <v>108964</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>89213</v>
+        <v>89911</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>128631</v>
+        <v>132054</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08108527017077263</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06638750444349673</v>
+        <v>0.06690735677132817</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09572070689473591</v>
+        <v>0.09826810963429948</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>753393</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>741051</v>
+        <v>742135</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>761224</v>
+        <v>762317</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9699413469643828</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9540520675518055</v>
+        <v>0.9554476842945707</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9800231064955303</v>
+        <v>0.9814295329255136</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>733</v>
@@ -6678,19 +6678,19 @@
         <v>803550</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>793228</v>
+        <v>792252</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>811929</v>
+        <v>811757</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.972623738191142</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9601307108042992</v>
+        <v>0.958949086502402</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9827662845001153</v>
+        <v>0.9825585911862018</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1460</v>
@@ -6699,19 +6699,19 @@
         <v>1556943</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1540882</v>
+        <v>1541667</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1569055</v>
+        <v>1568266</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9713238983436107</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9613038312145553</v>
+        <v>0.9617940970486094</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9788800846922331</v>
+        <v>0.9783878089936875</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>23348</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15517</v>
+        <v>14424</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35690</v>
+        <v>34606</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03005865303561716</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01997689350446974</v>
+        <v>0.01857046707448639</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0459479324481945</v>
+        <v>0.04455231570542931</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -6749,19 +6749,19 @@
         <v>22617</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14238</v>
+        <v>14410</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32939</v>
+        <v>33915</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02737626180885804</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01723371549988461</v>
+        <v>0.01744140881379802</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03986928919570067</v>
+        <v>0.04105091349759788</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>43</v>
@@ -6770,19 +6770,19 @@
         <v>45965</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>33853</v>
+        <v>34642</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>62026</v>
+        <v>61241</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02867610165638932</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02111991530776726</v>
+        <v>0.02161219100631245</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03869616878544472</v>
+        <v>0.03820590295139045</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>3108065</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3070837</v>
+        <v>3071257</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3137899</v>
+        <v>3140501</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9175241394658851</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9065339769979773</v>
+        <v>0.9066579647860566</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.926331129188978</v>
+        <v>0.9270995234120417</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3132</v>
@@ -6895,19 +6895,19 @@
         <v>3331043</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3304974</v>
+        <v>3302020</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3360753</v>
+        <v>3358193</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9405541055985142</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9331931897812016</v>
+        <v>0.9323592392575535</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9489431041359669</v>
+        <v>0.94822016739912</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6097</v>
@@ -6916,19 +6916,19 @@
         <v>6439108</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6390553</v>
+        <v>6392984</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6481913</v>
+        <v>6479529</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9292952572281248</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9222877870970893</v>
+        <v>0.9226385573346354</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9354727953366554</v>
+        <v>0.9351287688346068</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>279383</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>249549</v>
+        <v>246947</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>316611</v>
+        <v>316191</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08247586053411494</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07366887081102202</v>
+        <v>0.07290047658795822</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09346602300202253</v>
+        <v>0.09334203521394326</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>203</v>
@@ -6966,19 +6966,19 @@
         <v>210532</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>180822</v>
+        <v>183382</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>236601</v>
+        <v>239555</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05944589440148583</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05105689586403313</v>
+        <v>0.05177983260088002</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06680681021879847</v>
+        <v>0.06764076074244652</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>462</v>
@@ -6987,19 +6987,19 @@
         <v>489915</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>447110</v>
+        <v>449494</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>538470</v>
+        <v>536039</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07070474277187518</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06452720466334272</v>
+        <v>0.06487123116539303</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07771221290291075</v>
+        <v>0.07736144266536425</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>300881</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>289010</v>
+        <v>288394</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>308251</v>
+        <v>307824</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9436591089247028</v>
+        <v>0.9436591089247029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9064293886288157</v>
+        <v>0.904497155379394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9667726528859062</v>
+        <v>0.9654355680752572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>504</v>
@@ -7356,19 +7356,19 @@
         <v>293528</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>283528</v>
+        <v>283879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>300202</v>
+        <v>300431</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.92870791906654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8970678158636153</v>
+        <v>0.8981791020435727</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9498228935298539</v>
+        <v>0.9505468704095005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>817</v>
@@ -7377,19 +7377,19 @@
         <v>594409</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>580392</v>
+        <v>580263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>605062</v>
+        <v>604589</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9362163012571896</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9141378857688613</v>
+        <v>0.9139348806490004</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9529939649246174</v>
+        <v>0.9522503834849202</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>17964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10594</v>
+        <v>11021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29835</v>
+        <v>30451</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05634089107529711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03322734711409384</v>
+        <v>0.03456443192474282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09357061137118421</v>
+        <v>0.09550284462060622</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -7427,19 +7427,19 @@
         <v>22533</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15859</v>
+        <v>15630</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32533</v>
+        <v>32182</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07129208093345997</v>
+        <v>0.07129208093345998</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05017710647014631</v>
+        <v>0.04945312959049929</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.102932184136385</v>
+        <v>0.1018208979564272</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -7448,19 +7448,19 @@
         <v>40497</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29844</v>
+        <v>30317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54514</v>
+        <v>54643</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06378369874281049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04700603507538258</v>
+        <v>0.04774961651507991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08586211423113842</v>
+        <v>0.08606511935099972</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>380580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>353942</v>
+        <v>353471</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>404951</v>
+        <v>404247</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7172001069899665</v>
+        <v>0.7172001069899666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6670010820567518</v>
+        <v>0.6661134688040758</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7631261006135238</v>
+        <v>0.7618005825925579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>570</v>
@@ -7573,19 +7573,19 @@
         <v>434141</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>416200</v>
+        <v>416083</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>449907</v>
+        <v>450330</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7944117045324421</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7615813326256357</v>
+        <v>0.7613682951893401</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8232599901663116</v>
+        <v>0.8240349463796339</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>834</v>
@@ -7594,19 +7594,19 @@
         <v>814721</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>783733</v>
+        <v>784885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>841938</v>
+        <v>841942</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7563738899170214</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7276047179940286</v>
+        <v>0.728674572513762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7816409572731827</v>
+        <v>0.781644905404227</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>150067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>125696</v>
+        <v>126400</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176705</v>
+        <v>177176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2827998930100333</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.236873899386476</v>
+        <v>0.2381994174074423</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3329989179432481</v>
+        <v>0.3338865311959242</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>147</v>
@@ -7644,19 +7644,19 @@
         <v>112353</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>96587</v>
+        <v>96164</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>130294</v>
+        <v>130411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2055882954675578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1767400098336881</v>
+        <v>0.175965053620366</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2384186673743643</v>
+        <v>0.2386317048106597</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>265</v>
@@ -7665,19 +7665,19 @@
         <v>262420</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>235203</v>
+        <v>235199</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>293408</v>
+        <v>292256</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2436261100829787</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2183590427268174</v>
+        <v>0.2183550945957731</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2723952820059714</v>
+        <v>0.2713254274862379</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>305368</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>297524</v>
+        <v>298230</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>310064</v>
+        <v>310300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9663754085149572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9415520350872257</v>
+        <v>0.9437858809971151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9812376123125272</v>
+        <v>0.9819830600460708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>502</v>
@@ -7790,19 +7790,19 @@
         <v>332016</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>322594</v>
+        <v>322626</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>339931</v>
+        <v>338959</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9316325342258047</v>
+        <v>0.9316325342258046</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.905194628545786</v>
+        <v>0.9052840782381292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9538421286899226</v>
+        <v>0.9511142036006126</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>849</v>
@@ -7811,19 +7811,19 @@
         <v>637385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>625745</v>
+        <v>624665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>646727</v>
+        <v>646572</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9479605115232619</v>
+        <v>0.9479605115232617</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9306488475053208</v>
+        <v>0.9290426049319559</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9618545008795802</v>
+        <v>0.9616242580444302</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>10625</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5929</v>
+        <v>5693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18469</v>
+        <v>17763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0336245914850427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01876238768747319</v>
+        <v>0.0180169399539291</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05844796491277521</v>
+        <v>0.05621411900288429</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -7861,19 +7861,19 @@
         <v>24365</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16450</v>
+        <v>17422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33787</v>
+        <v>33755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0683674657741954</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04615787131007705</v>
+        <v>0.04888579639938759</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09480537145421375</v>
+        <v>0.09471592176187094</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -7882,19 +7882,19 @@
         <v>34990</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25648</v>
+        <v>25803</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46630</v>
+        <v>47710</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05203948847673826</v>
+        <v>0.05203948847673827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03814549912041963</v>
+        <v>0.03837574195556988</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06935115249467907</v>
+        <v>0.0709573950680442</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>340553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>320890</v>
+        <v>320307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>353150</v>
+        <v>353723</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9126547832848788</v>
+        <v>0.9126547832848789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8599608547252521</v>
+        <v>0.858397167381731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9464159260485834</v>
+        <v>0.9479513329293701</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>552</v>
@@ -8007,19 +8007,19 @@
         <v>390134</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>378766</v>
+        <v>378205</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>398915</v>
+        <v>398009</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9245724418082127</v>
+        <v>0.9245724418082129</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8976332277017398</v>
+        <v>0.896302099559941</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9453840019689251</v>
+        <v>0.9432355369076534</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>823</v>
@@ -8028,19 +8028,19 @@
         <v>730687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>707836</v>
+        <v>710982</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>745512</v>
+        <v>746525</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9189794594363794</v>
+        <v>0.9189794594363792</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.890240145495934</v>
+        <v>0.8941970685279981</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9376241508782173</v>
+        <v>0.938898230689949</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>32592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19995</v>
+        <v>19422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52255</v>
+        <v>52838</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08734521671512119</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05358407395141624</v>
+        <v>0.05204866707062997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1400391452747479</v>
+        <v>0.1416028326182689</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -8078,19 +8078,19 @@
         <v>31827</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23046</v>
+        <v>23952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43195</v>
+        <v>43756</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07542755819178723</v>
+        <v>0.07542755819178726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05461599803107462</v>
+        <v>0.05676446309234671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1023667722982591</v>
+        <v>0.1036979004400592</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -8099,19 +8099,19 @@
         <v>64420</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>49595</v>
+        <v>48582</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87271</v>
+        <v>84125</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08102054056362065</v>
+        <v>0.08102054056362064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0623758491217825</v>
+        <v>0.06110176931005105</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1097598545040659</v>
+        <v>0.1058029314720018</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>200747</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>196087</v>
+        <v>196182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203655</v>
+        <v>203624</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9760852209277718</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9534297467334518</v>
+        <v>0.9538927011559057</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9902284282819082</v>
+        <v>0.990075933506259</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>482</v>
@@ -8224,19 +8224,19 @@
         <v>222282</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>217342</v>
+        <v>217723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224785</v>
+        <v>224779</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9799779843644444</v>
+        <v>0.9799779843644442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9582021547399525</v>
+        <v>0.9598806175798099</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9910135601421968</v>
+        <v>0.9909903099397127</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>754</v>
@@ -8245,19 +8245,19 @@
         <v>423028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>417243</v>
+        <v>416804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>426885</v>
+        <v>427005</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9781268254376084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9647512161562947</v>
+        <v>0.9637353033217692</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9870455344235999</v>
+        <v>0.9873211231462863</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>4918</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2010</v>
+        <v>2041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9578</v>
+        <v>9483</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02391477907222802</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00977157171809164</v>
+        <v>0.009924066493740794</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04657025326654758</v>
+        <v>0.04610729884409426</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -8295,19 +8295,19 @@
         <v>4541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2038</v>
+        <v>2044</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9481</v>
+        <v>9100</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02002201563555567</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008986439857803299</v>
+        <v>0.009009690060287312</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04179784526004734</v>
+        <v>0.04011938242018993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -8316,19 +8316,19 @@
         <v>9460</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5603</v>
+        <v>5483</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15245</v>
+        <v>15684</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02187317456239156</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01295446557639991</v>
+        <v>0.01267887685371395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03524878384370513</v>
+        <v>0.03626469667823089</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>236302</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>224076</v>
+        <v>224213</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>244530</v>
+        <v>245069</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8729050604069803</v>
+        <v>0.8729050604069805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8277433348505239</v>
+        <v>0.8282506073950149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9033031703465996</v>
+        <v>0.9052939574168574</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>422</v>
@@ -8441,19 +8441,19 @@
         <v>243716</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>236745</v>
+        <v>236635</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>249608</v>
+        <v>249350</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9240401811967794</v>
+        <v>0.9240401811967792</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8976131320765131</v>
+        <v>0.8971952195051538</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.946379674994846</v>
+        <v>0.9454010174277371</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>749</v>
@@ -8462,19 +8462,19 @@
         <v>480017</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>467228</v>
+        <v>467399</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>491551</v>
+        <v>490570</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8981398242740254</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8742106990753533</v>
+        <v>0.8745297793770742</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9197206979326031</v>
+        <v>0.9178852135535094</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>34405</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26177</v>
+        <v>25638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46631</v>
+        <v>46494</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1270949395930196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09669682965340037</v>
+        <v>0.09470604258314304</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.172256665149476</v>
+        <v>0.1717493926049861</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -8512,19 +8512,19 @@
         <v>20034</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14142</v>
+        <v>14400</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27005</v>
+        <v>27115</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07595981880322056</v>
+        <v>0.07595981880322054</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05362032500515394</v>
+        <v>0.05459898257226289</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1023868679234869</v>
+        <v>0.1028047804948464</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -8533,19 +8533,19 @@
         <v>54440</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>42906</v>
+        <v>43887</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>67229</v>
+        <v>67058</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1018601757259746</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08027930206739692</v>
+        <v>0.08211478644649044</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1257893009246468</v>
+        <v>0.1254702206229256</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>648977</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>629072</v>
+        <v>629936</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>666298</v>
+        <v>666063</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9017485914500194</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.874091119379367</v>
+        <v>0.8752911754162435</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9258163301438137</v>
+        <v>0.925489381778099</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>852</v>
@@ -8658,19 +8658,19 @@
         <v>685985</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>668554</v>
+        <v>668430</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>701190</v>
+        <v>700373</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8885164754869604</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8659382092415751</v>
+        <v>0.8657779301601465</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9082100880125317</v>
+        <v>0.9071521245331935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1395</v>
@@ -8679,19 +8679,19 @@
         <v>1334962</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1308310</v>
+        <v>1308493</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1357082</v>
+        <v>1359868</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8949002676281039</v>
+        <v>0.8949002676281042</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8770341487817793</v>
+        <v>0.8771565174550772</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9097286920193798</v>
+        <v>0.9115962674000695</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>70710</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>53389</v>
+        <v>53624</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>90615</v>
+        <v>89751</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0982514085499806</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07418366985618637</v>
+        <v>0.074510618221901</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1259088806206331</v>
+        <v>0.1247088245837568</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>108</v>
@@ -8729,19 +8729,19 @@
         <v>86072</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70867</v>
+        <v>71684</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>103503</v>
+        <v>103627</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1114835245130394</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09178991198746837</v>
+        <v>0.09284787546680659</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.134061790758425</v>
+        <v>0.1342220698398536</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>164</v>
@@ -8750,19 +8750,19 @@
         <v>156782</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>134662</v>
+        <v>131876</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>183434</v>
+        <v>183251</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.105099732371896</v>
+        <v>0.1050997323718961</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09027130798062012</v>
+        <v>0.08840373259993045</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1229658512182206</v>
+        <v>0.122843482544923</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>666129</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>642576</v>
+        <v>641521</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>686667</v>
+        <v>687066</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8346723473692708</v>
+        <v>0.8346723473692709</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8051602261481674</v>
+        <v>0.8038389343403912</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8604070360360783</v>
+        <v>0.8609075011008256</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>916</v>
@@ -8875,19 +8875,19 @@
         <v>720879</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>701525</v>
+        <v>704376</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>736391</v>
+        <v>740277</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.8671388046096276</v>
+        <v>0.8671388046096278</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8438575546931674</v>
+        <v>0.8472870834648984</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8857979333115126</v>
+        <v>0.8904715152149174</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1555</v>
@@ -8896,19 +8896,19 @@
         <v>1387008</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1357418</v>
+        <v>1356077</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1413373</v>
+        <v>1415605</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8512369303702565</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8330769167570451</v>
+        <v>0.8322540132335795</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.867417423390911</v>
+        <v>0.8687876401822412</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>131943</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>111405</v>
+        <v>111006</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>155496</v>
+        <v>156551</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1653276526307291</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1395929639639217</v>
+        <v>0.1390924988991743</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1948397738518327</v>
+        <v>0.1961610656596086</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>146</v>
@@ -8946,19 +8946,19 @@
         <v>110452</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>94940</v>
+        <v>91054</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>129806</v>
+        <v>126955</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1328611953903723</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1142020666884875</v>
+        <v>0.1095284847850825</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1561424453068328</v>
+        <v>0.1527129165351017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>269</v>
@@ -8967,19 +8967,19 @@
         <v>242395</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>216030</v>
+        <v>213798</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>271985</v>
+        <v>273326</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1487630696297435</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1325825766090892</v>
+        <v>0.1312123598177587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1669230832429549</v>
+        <v>0.1677459867664213</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>3079536</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3036005</v>
+        <v>3032182</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3126070</v>
+        <v>3126050</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8717077149217343</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8593856237352596</v>
+        <v>0.8583036144114378</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8848797962498405</v>
+        <v>0.8848742394802361</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4800</v>
@@ -9092,19 +9092,19 @@
         <v>3322683</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3288779</v>
+        <v>3287103</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3358657</v>
+        <v>3352564</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.8896405523825281</v>
+        <v>0.8896405523825283</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8805629845986034</v>
+        <v>0.8801141115018345</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8992724755102113</v>
+        <v>0.8976410528258651</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7776</v>
@@ -9113,19 +9113,19 @@
         <v>6402219</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6347201</v>
+        <v>6344748</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6462045</v>
+        <v>6460782</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8809234717780878</v>
+        <v>0.8809234717780879</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8733532619272564</v>
+        <v>0.8730156327073653</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8891553239784059</v>
+        <v>0.8889815300828143</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>453226</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>406692</v>
+        <v>406712</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>496757</v>
+        <v>500580</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1282922850782659</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1151202037501601</v>
+        <v>0.1151257605197641</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1406143762647411</v>
+        <v>0.1416963855885623</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>563</v>
@@ -9163,19 +9163,19 @@
         <v>412177</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>376203</v>
+        <v>382296</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>446081</v>
+        <v>447757</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1103594476174718</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1007275244897883</v>
+        <v>0.1023589471741349</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1194370154013965</v>
+        <v>0.1198858884981659</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>963</v>
@@ -9184,19 +9184,19 @@
         <v>865403</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>805577</v>
+        <v>806840</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>920421</v>
+        <v>922874</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1190765282219121</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1108446760215939</v>
+        <v>0.1110184699171856</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1266467380727437</v>
+        <v>0.1269843672926347</v>
       </c>
     </row>
     <row r="30">
